--- a/WatanyaPingoConsole/bin/Debug/sokhna_scheme.xlsx
+++ b/WatanyaPingoConsole/bin/Debug/sokhna_scheme.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>10.0.10.101</t>
   </si>
@@ -56,6 +56,225 @@
   </si>
   <si>
     <t>10.0.10.110</t>
+  </si>
+  <si>
+    <t>Cairo Lab</t>
+  </si>
+  <si>
+    <t>192.168.1.109</t>
+  </si>
+  <si>
+    <t>Degla</t>
+  </si>
+  <si>
+    <t>10.0.10.107</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>M2 Ant. 1</t>
+  </si>
+  <si>
+    <t>10.0.10.111</t>
+  </si>
+  <si>
+    <t>M2 Ant. 2</t>
+  </si>
+  <si>
+    <t>M2 Ant. 3</t>
+  </si>
+  <si>
+    <t>10.0.10.112</t>
+  </si>
+  <si>
+    <t>10.0.10.114</t>
+  </si>
+  <si>
+    <t>Tohamy</t>
+  </si>
+  <si>
+    <t>10.0.10.113</t>
+  </si>
+  <si>
+    <t>M3 Ant. 1</t>
+  </si>
+  <si>
+    <t>10.0.10.115</t>
+  </si>
+  <si>
+    <t>M3 Ant. 2</t>
+  </si>
+  <si>
+    <t>10.0.10.116</t>
+  </si>
+  <si>
+    <t>M3 Ant. 3</t>
+  </si>
+  <si>
+    <t>10.0.10.118</t>
+  </si>
+  <si>
+    <t>Gendaly 1</t>
+  </si>
+  <si>
+    <t>10.0.10.117</t>
+  </si>
+  <si>
+    <t>Vodafone 4253 Ant. 1</t>
+  </si>
+  <si>
+    <t>10.0.10.119</t>
+  </si>
+  <si>
+    <t>Vodafone 4253 Ant. 2</t>
+  </si>
+  <si>
+    <t>Vodafone 4253 Ant. 3</t>
+  </si>
+  <si>
+    <t>10.0.10.120</t>
+  </si>
+  <si>
+    <t>10.0.10.140</t>
+  </si>
+  <si>
+    <t>Vodafone 4200 Ant. 1</t>
+  </si>
+  <si>
+    <t>10.0.10.141</t>
+  </si>
+  <si>
+    <t>Vodafone 4200 Ant. 2</t>
+  </si>
+  <si>
+    <t>10.0.10.142</t>
+  </si>
+  <si>
+    <t>Vodafone 4200 Ant. 3</t>
+  </si>
+  <si>
+    <t>10.0.10.137</t>
+  </si>
+  <si>
+    <t>Kilo 59</t>
+  </si>
+  <si>
+    <t>10.0.10.155</t>
+  </si>
+  <si>
+    <t>Kilo 61</t>
+  </si>
+  <si>
+    <t>10.0.10.143</t>
+  </si>
+  <si>
+    <t>Vodafone 4254 Ant. 1</t>
+  </si>
+  <si>
+    <t>10.0.10.152</t>
+  </si>
+  <si>
+    <t>Vodafone 4254 Ant. 2</t>
+  </si>
+  <si>
+    <t>10.0.10.122</t>
+  </si>
+  <si>
+    <t>M6 Ant. 1</t>
+  </si>
+  <si>
+    <t>M6 Ant. 2</t>
+  </si>
+  <si>
+    <t>M6 Ant. 3</t>
+  </si>
+  <si>
+    <t>10.0.10.123</t>
+  </si>
+  <si>
+    <t>10.0.10.126</t>
+  </si>
+  <si>
+    <t>10.0.10.128</t>
+  </si>
+  <si>
+    <t>Al Mosheer</t>
+  </si>
+  <si>
+    <t>10.0.10.127</t>
+  </si>
+  <si>
+    <t>M11 Ant. 1</t>
+  </si>
+  <si>
+    <t>10.0.10.129</t>
+  </si>
+  <si>
+    <t>M11 Ant. 2</t>
+  </si>
+  <si>
+    <t>10.0.10.130</t>
+  </si>
+  <si>
+    <t>M12 Ant. 1</t>
+  </si>
+  <si>
+    <t>M12 Ant. 2</t>
+  </si>
+  <si>
+    <t>10.0.10.131</t>
+  </si>
+  <si>
+    <t>10.0.10.132</t>
+  </si>
+  <si>
+    <t>Sokhna Ant. 1</t>
+  </si>
+  <si>
+    <t>Sokhna Ant. 2</t>
+  </si>
+  <si>
+    <t>Sokhna Ant. 3</t>
+  </si>
+  <si>
+    <t>10.0.10.133</t>
+  </si>
+  <si>
+    <t>10.0.10.134</t>
+  </si>
+  <si>
+    <t>10.10.10.51</t>
+  </si>
+  <si>
+    <t>Vodafone 4256 Ant. 1</t>
+  </si>
+  <si>
+    <t>Vodafone 4256 Ant. 2</t>
+  </si>
+  <si>
+    <t>Vodafone 4256 Ant. 3</t>
+  </si>
+  <si>
+    <t>10.0.10.135</t>
+  </si>
+  <si>
+    <t>10.0.10.136</t>
+  </si>
+  <si>
+    <t>10.0.10.138</t>
+  </si>
+  <si>
+    <t>Hgoul 3</t>
+  </si>
+  <si>
+    <t>10.0.10.139</t>
+  </si>
+  <si>
+    <t>Al Seyana</t>
+  </si>
+  <si>
+    <t>10.0.10.105</t>
   </si>
 </sst>
 </file>
@@ -397,15 +616,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,6 +684,302 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
